--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4463FAB-6B64-41FA-9F01-C898FB9D5F91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19395B8C-092A-4B73-8AFA-82C20E916F00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" firstSheet="3" activeTab="7" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{0B4DA3AD-CE3A-4FA1-8D34-EFA83171A421}">
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{0B4DA3AD-CE3A-4FA1-8D34-EFA83171A421}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{4A3520F3-A1A6-40F6-B389-DD27092D7071}">
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{4A3520F3-A1A6-40F6-B389-DD27092D7071}">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="467">
   <si>
     <t>order</t>
     <phoneticPr fontId="1"/>
@@ -285,10 +285,6 @@
   </si>
   <si>
     <t>shoot_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>view_count</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -965,11 +961,6 @@
     <rPh sb="99" eb="101">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>400: 'display name missing'
-・bodyが正しくない</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2107,22 +2098,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>postId
-userId
-oldImageUrl
-newImageUrl
-description
-shootDate
-lng
-lat
-viewCount
-displayName
-likedCount
-commentsCount
-likeStatus?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PageAuth</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3145,10 +3120,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>signOutUser</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3174,28 +3145,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inProgress</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SHOW_PROGRESS
-HIDE_PROGRESS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(actionなし)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3215,12 +3165,180 @@
 app.inProgress</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>tasksInProgress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startProgress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finishProgress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>START_PROGRESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FINISH_PROGRESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signInWithEmail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400: 'display name missing'
+・bodyが正しくない
+400: 'email is not verified yet'
+・メールの認証が未済</t>
+    <rPh sb="79" eb="81">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ミサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirebaseのStorage,Function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>initAuth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signUpWithEmail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signInWithGoogle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signInWithFacebook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email: string
+password: string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email: string,
+password: string,
+displayName: string,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resetPassword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email: string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emailVerified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>earnedComments</t>
+  </si>
+  <si>
+    <t>earnedLikes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>earnedViews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from firebase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sendEmailVerification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>view_count</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postId
+userId
+oldImageUrl
+newImageUrl
+description
+shootDate
+lng
+lat
+viewCount
+createdAt
+displayName
+likedCount
+commentsCount
+likeStatus?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapLat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapLng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapZoomLevel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limitCountOfGrid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>increaseLimitCountOfGrid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INCREASE_LIMIT_COUNT_OF_GRID</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3352,8 +3470,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="源ノ角ゴシック Code JP R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3399,6 +3524,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3596,7 +3727,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3778,9 +3909,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3947,6 +4075,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4356,11 +4508,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BB1001"/>
+  <dimension ref="A1:BB1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ12" sqref="AJ12"/>
+      <selection pane="bottomLeft" activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -4397,65 +4549,65 @@
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
       <c r="N1" s="45"/>
       <c r="O1" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="43"/>
       <c r="Q1" s="43"/>
       <c r="R1" s="43"/>
       <c r="S1" s="43"/>
       <c r="T1" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U1" s="43"/>
       <c r="V1" s="43"/>
       <c r="W1" s="43"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="43"/>
       <c r="AA1" s="43"/>
       <c r="AB1" s="43"/>
       <c r="AC1" s="45"/>
       <c r="AD1" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="45"/>
       <c r="AI1" s="44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
       <c r="AM1" s="43"/>
       <c r="AN1" s="45"/>
       <c r="AO1" s="44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AP1" s="43"/>
       <c r="AQ1" s="43"/>
@@ -4529,10 +4681,10 @@
     </row>
     <row r="3" spans="1:54">
       <c r="A3" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="47">
         <v>2</v>
@@ -4595,10 +4747,10 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="47">
         <v>2</v>
@@ -4661,10 +4813,10 @@
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="47">
         <v>1</v>
@@ -4728,7 +4880,7 @@
     <row r="6" spans="1:54">
       <c r="A6" s="47"/>
       <c r="B6" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="47">
         <v>1</v>
@@ -4792,7 +4944,7 @@
     <row r="7" spans="1:54">
       <c r="A7" s="47"/>
       <c r="B7" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
@@ -4861,10 +5013,10 @@
     </row>
     <row r="8" spans="1:54">
       <c r="A8" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="47">
         <v>4</v>
@@ -4929,7 +5081,7 @@
     </row>
     <row r="9" spans="1:54">
       <c r="B9" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="47">
         <v>2</v>
@@ -4994,7 +5146,7 @@
     </row>
     <row r="10" spans="1:54">
       <c r="B10" s="47" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C10" s="47">
         <v>1</v>
@@ -5058,7 +5210,7 @@
     <row r="11" spans="1:54">
       <c r="A11" s="47"/>
       <c r="B11" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="47">
         <v>10</v>
@@ -5119,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="AK11" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="50"/>
       <c r="AM11" s="50"/>
@@ -5142,7 +5294,7 @@
     <row r="12" spans="1:54">
       <c r="A12" s="47"/>
       <c r="B12" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="47">
         <v>3</v>
@@ -5184,10 +5336,10 @@
       </c>
       <c r="AI12" s="50"/>
       <c r="AJ12" s="51"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50">
-        <v>2</v>
-      </c>
+      <c r="AK12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="50"/>
       <c r="AM12" s="50"/>
       <c r="AN12" s="52"/>
       <c r="AO12" s="51"/>
@@ -5207,14 +5359,12 @@
     </row>
     <row r="13" spans="1:54">
       <c r="A13" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="47">
-        <v>5</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
@@ -5227,12 +5377,8 @@
       <c r="M13" s="50"/>
       <c r="N13" s="52"/>
       <c r="O13" s="50"/>
-      <c r="P13" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="50">
-        <v>1</v>
-      </c>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
       <c r="S13" s="50"/>
       <c r="T13" s="51"/>
@@ -5253,16 +5399,12 @@
       <c r="AI13" s="50"/>
       <c r="AJ13" s="51"/>
       <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50">
-        <v>2</v>
-      </c>
-      <c r="AN13" s="52">
-        <v>2</v>
-      </c>
-      <c r="AO13" s="51">
-        <v>2</v>
-      </c>
+      <c r="AL13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="51"/>
       <c r="AP13" s="50"/>
       <c r="AQ13" s="50"/>
       <c r="AR13" s="50"/>
@@ -5278,9 +5420,12 @@
       <c r="BB13" s="47"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="47">
+        <v>5</v>
+      </c>
       <c r="D14" s="47"/>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
@@ -5293,8 +5438,12 @@
       <c r="M14" s="50"/>
       <c r="N14" s="52"/>
       <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
+      <c r="P14" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>1</v>
+      </c>
       <c r="R14" s="50"/>
       <c r="S14" s="50"/>
       <c r="T14" s="51"/>
@@ -5316,9 +5465,15 @@
       <c r="AJ14" s="51"/>
       <c r="AK14" s="50"/>
       <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="51"/>
+      <c r="AM14" s="50">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="52">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="51">
+        <v>2</v>
+      </c>
       <c r="AP14" s="50"/>
       <c r="AQ14" s="50"/>
       <c r="AR14" s="50"/>
@@ -6402,47 +6557,47 @@
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="57"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="52"/>
       <c r="AT34" s="47"/>
       <c r="AU34" s="47"/>
       <c r="AV34" s="47"/>
@@ -60605,34 +60760,90 @@
       <c r="BA1001" s="47"/>
       <c r="BB1001" s="47"/>
     </row>
+    <row r="1002" spans="1:54">
+      <c r="A1002" s="47"/>
+      <c r="B1002" s="47"/>
+      <c r="C1002" s="47"/>
+      <c r="D1002" s="47"/>
+      <c r="E1002" s="55"/>
+      <c r="F1002" s="47"/>
+      <c r="G1002" s="47"/>
+      <c r="H1002" s="53"/>
+      <c r="I1002" s="53"/>
+      <c r="J1002" s="56"/>
+      <c r="K1002" s="53"/>
+      <c r="L1002" s="53"/>
+      <c r="M1002" s="53"/>
+      <c r="N1002" s="57"/>
+      <c r="O1002" s="53"/>
+      <c r="P1002" s="53"/>
+      <c r="Q1002" s="53"/>
+      <c r="R1002" s="53"/>
+      <c r="S1002" s="53"/>
+      <c r="T1002" s="56"/>
+      <c r="U1002" s="53"/>
+      <c r="V1002" s="53"/>
+      <c r="W1002" s="53"/>
+      <c r="X1002" s="57"/>
+      <c r="Y1002" s="56"/>
+      <c r="Z1002" s="53"/>
+      <c r="AA1002" s="53"/>
+      <c r="AB1002" s="53"/>
+      <c r="AC1002" s="57"/>
+      <c r="AD1002" s="56"/>
+      <c r="AE1002" s="53"/>
+      <c r="AF1002" s="53"/>
+      <c r="AG1002" s="53"/>
+      <c r="AH1002" s="57"/>
+      <c r="AI1002" s="53"/>
+      <c r="AJ1002" s="56"/>
+      <c r="AK1002" s="53"/>
+      <c r="AL1002" s="53"/>
+      <c r="AM1002" s="53"/>
+      <c r="AN1002" s="57"/>
+      <c r="AO1002" s="56"/>
+      <c r="AP1002" s="53"/>
+      <c r="AQ1002" s="53"/>
+      <c r="AR1002" s="53"/>
+      <c r="AS1002" s="57"/>
+      <c r="AT1002" s="47"/>
+      <c r="AU1002" s="47"/>
+      <c r="AV1002" s="47"/>
+      <c r="AW1002" s="47"/>
+      <c r="AX1002" s="47"/>
+      <c r="AY1002" s="47"/>
+      <c r="AZ1002" s="47"/>
+      <c r="BA1002" s="47"/>
+      <c r="BB1002" s="47"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:AI9 E11:AI101 W10:AI10 E10:U10 E1:AH1">
+  <conditionalFormatting sqref="E2:AI9 E11:AI102 W10:AI10 E10:U10 E1:AH1">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI9 E11:AI101 W10:AI10 E10:U10 E1:AH1">
+  <conditionalFormatting sqref="E2:AI9 E11:AI102 W10:AI10 E10:U10 E1:AH1">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AN101">
+  <conditionalFormatting sqref="AJ1:AN102">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AN101">
+  <conditionalFormatting sqref="AJ1:AN102">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO1:AS101">
+  <conditionalFormatting sqref="AO1:AS102">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO1:AS101">
+  <conditionalFormatting sqref="AO1:AS102">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -60655,10 +60866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4E9A2-CB3D-4BB6-B913-4E56EF8C4F22}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="23.5" customHeight="1"/>
@@ -60667,7 +60878,7 @@
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -60689,13 +60900,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>11</v>
@@ -60704,7 +60915,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.5" customHeight="1">
@@ -60712,7 +60923,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -60722,10 +60933,10 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -60735,7 +60946,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -60746,7 +60957,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
@@ -60756,20 +60967,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
@@ -60785,14 +60996,14 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
@@ -60813,16 +61024,16 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.5" customHeight="1">
@@ -60836,12 +61047,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
@@ -60857,12 +61068,12 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
@@ -60878,7 +61089,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -60897,12 +61108,12 @@
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -60915,20 +61126,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.5" customHeight="1">
@@ -60936,143 +61147,141 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>452</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>453</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A14" s="8">
+    <row r="15" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A15" s="3">
+    <row r="16" spans="1:10" ht="23.5" customHeight="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.5" customHeight="1">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="23.5" customHeight="1">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>60</v>
@@ -61083,45 +61292,70 @@
     </row>
     <row r="18" spans="1:9" ht="23.5" customHeight="1">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.5" customHeight="1">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -61138,10 +61372,10 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>
@@ -61162,133 +61396,133 @@
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" ht="29">
       <c r="A1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="72.5">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="29">
-      <c r="A3" s="18">
+    <row r="3" spans="1:12" s="119" customFormat="1" ht="29">
+      <c r="A3" s="119">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="120" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="17"/>
+      <c r="J3" s="121" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" spans="1:12" s="30" customFormat="1" ht="29">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
       <c r="H4" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="29"/>
     </row>
@@ -61297,27 +61531,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
@@ -61327,25 +61561,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
@@ -61355,28 +61589,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="35"/>
     </row>
@@ -61385,29 +61619,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="35"/>
@@ -61417,27 +61651,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>66</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="35"/>
@@ -61447,33 +61681,33 @@
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="87" t="s">
-        <v>331</v>
+      <c r="H10" s="86" t="s">
+        <v>328</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="87" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>137</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="31" customFormat="1" ht="87">
@@ -61481,29 +61715,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="35"/>
@@ -61513,55 +61747,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="88" customFormat="1">
-      <c r="A13" s="88">
+    <row r="13" spans="1:12" s="87" customFormat="1">
+      <c r="A13" s="87">
         <v>11</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="92" t="s">
-        <v>224</v>
+      <c r="B13" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="91" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="31" customFormat="1" ht="29">
@@ -61569,27 +61803,27 @@
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="35"/>
@@ -61599,57 +61833,57 @@
         <v>13</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" s="93" customFormat="1" ht="29">
-      <c r="A16" s="93">
+    <row r="16" spans="1:12" s="92" customFormat="1" ht="29">
+      <c r="A16" s="92">
         <v>14</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="95" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="92" t="s">
-        <v>224</v>
+      <c r="K16" s="94"/>
+      <c r="L16" s="91" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="31" customFormat="1" ht="29">
@@ -61657,27 +61891,27 @@
         <v>15</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="35"/>
@@ -61687,23 +61921,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="19"/>
       <c r="J18" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="17"/>
@@ -61775,10 +62009,10 @@
     </row>
     <row r="27" spans="1:12" ht="29">
       <c r="B27" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -61813,21 +62047,21 @@
     <row r="1" spans="1:3">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72.5">
       <c r="A2" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -61842,7 +62076,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -61856,42 +62090,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5">
-      <c r="A2" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="217.5">
+      <c r="A2" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="232">
       <c r="A3" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="217.5">
       <c r="A5" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -61914,582 +62148,582 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.08203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.58203125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="23.25" style="75" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="75" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="43.5" style="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="75" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="74"/>
+    <col min="1" max="1" width="16.08203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.08203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.58203125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="74" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="74" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="74" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="70" customFormat="1" ht="29">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:13" s="69" customFormat="1" ht="29">
+      <c r="A1" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="68"/>
+    </row>
+    <row r="2" spans="1:13" s="102" customFormat="1" ht="43.5">
+      <c r="A2" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:13" s="102" customFormat="1" ht="29">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:13" ht="72.5">
+      <c r="A4" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="1:13" ht="58">
+      <c r="A5" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="H5" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" ht="29">
+      <c r="A6" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+    </row>
+    <row r="7" spans="1:13" ht="29">
+      <c r="A7" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="67" t="s">
+      <c r="C7" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" s="81" customFormat="1" ht="130.5">
+      <c r="A8" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="80" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="81" customFormat="1" ht="29">
+      <c r="A9" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="29">
+      <c r="A10" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:13" s="78" customFormat="1" ht="333.5">
+      <c r="A11" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" s="103" customFormat="1" ht="43.5">
-      <c r="A2" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="106" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" s="101" t="s">
-        <v>266</v>
-      </c>
-      <c r="I2" s="101" t="s">
+      <c r="I11" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="L11" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="M11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" s="78" customFormat="1" ht="87">
+      <c r="A12" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="J12" s="114" t="s">
+        <v>402</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
+    </row>
+    <row r="13" spans="1:13" s="78" customFormat="1" ht="58">
+      <c r="A13" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
+    </row>
+    <row r="14" spans="1:13" s="78" customFormat="1" ht="72.5">
+      <c r="A14" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+    </row>
+    <row r="15" spans="1:13" s="85" customFormat="1" ht="58">
+      <c r="A15" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:13" s="103" customFormat="1" ht="29">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="106" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="H3" s="101" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-    </row>
-    <row r="4" spans="1:13" ht="72.5">
-      <c r="A4" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="1:13" ht="58">
-      <c r="A5" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="105" t="s">
+      <c r="K15" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+    </row>
+    <row r="16" spans="1:13" s="85" customFormat="1" ht="87">
+      <c r="A16" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-    </row>
-    <row r="6" spans="1:13" ht="29">
-      <c r="A6" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
-    </row>
-    <row r="7" spans="1:13" ht="29">
-      <c r="A7" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
-    </row>
-    <row r="8" spans="1:13" s="82" customFormat="1" ht="130.5">
-      <c r="A8" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="104" t="s">
+      <c r="D16" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="109" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="1:12" s="74" customFormat="1" ht="58">
+      <c r="A17" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="1:12" s="74" customFormat="1" ht="145">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="82" customFormat="1" ht="29">
-      <c r="A9" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="104" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="82" customFormat="1" ht="29">
-      <c r="A10" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-    </row>
-    <row r="11" spans="1:13" s="79" customFormat="1" ht="333.5">
-      <c r="A11" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>394</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77" t="s">
-        <v>385</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="M11" s="78"/>
-    </row>
-    <row r="12" spans="1:13" s="79" customFormat="1" ht="87">
-      <c r="A12" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>379</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="115" t="s">
-        <v>405</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>383</v>
-      </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-    </row>
-    <row r="13" spans="1:13" s="79" customFormat="1" ht="58">
-      <c r="A13" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
-    </row>
-    <row r="14" spans="1:13" s="79" customFormat="1" ht="72.5">
-      <c r="A14" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77" t="s">
-        <v>333</v>
-      </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-    </row>
-    <row r="15" spans="1:13" s="86" customFormat="1" ht="58">
-      <c r="A15" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="H15" s="84" t="s">
-        <v>338</v>
-      </c>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="K15" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-    </row>
-    <row r="16" spans="1:13" s="86" customFormat="1" ht="87">
-      <c r="A16" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>243</v>
-      </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="110" t="s">
-        <v>389</v>
-      </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-    </row>
-    <row r="17" spans="1:12" s="75" customFormat="1" ht="58">
-      <c r="A17" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-    </row>
-    <row r="18" spans="1:12" s="75" customFormat="1" ht="145">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-    </row>
-    <row r="19" spans="1:12" s="75" customFormat="1" ht="29">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="113" t="s">
-        <v>361</v>
-      </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-    </row>
-    <row r="20" spans="1:12" s="75" customFormat="1" ht="29">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="105" t="s">
-        <v>437</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72" t="s">
-        <v>438</v>
-      </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="1:12" s="74" customFormat="1" ht="29">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="J19" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12" s="74" customFormat="1" ht="29">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="104" t="s">
+        <v>428</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71" t="s">
+        <v>429</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -62499,10 +62733,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF6D762-FC4C-4CE1-8630-6F88B4BBB570}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.5" customHeight="1"/>
@@ -62515,117 +62749,187 @@
     <col min="6" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B2" s="64" t="s">
-        <v>226</v>
+    <row r="2" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B2" s="63" t="s">
+        <v>224</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B3" s="65"/>
+    <row r="3" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B3" s="64"/>
       <c r="C3" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B4" s="65"/>
+      <c r="E3" s="18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B4" s="64"/>
       <c r="C4" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B5" s="66"/>
+    <row r="5" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B5" s="64"/>
       <c r="C5" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B6" s="64"/>
+      <c r="C6" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B7" s="64"/>
+      <c r="C7" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B8" s="64"/>
+      <c r="C8" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B9" s="65"/>
+      <c r="C9" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="109" t="s">
+      <c r="C10" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B11" s="64"/>
+      <c r="C11" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B12" s="64"/>
+      <c r="C12" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B13" s="64"/>
+      <c r="C13" s="108" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B14" s="64"/>
+      <c r="C14" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B15" s="65"/>
+      <c r="C15" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B16" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="D9" s="109" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B11" s="118" t="s">
-        <v>356</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>357</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B12" s="119"/>
-      <c r="C12" s="111" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
+      <c r="C16" s="110" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B17" s="124"/>
+      <c r="C17" s="110" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B18" s="124"/>
+      <c r="C18" s="125" t="s">
+        <v>460</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B19" s="124"/>
+      <c r="C19" s="125" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="31.5" customHeight="1">
+      <c r="B20" s="118"/>
+      <c r="C20" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B21" s="16"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B22" s="16"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="2:4" ht="24.5" customHeight="1">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -62639,13 +62943,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.08203125" defaultRowHeight="30" customHeight="1"/>
@@ -62665,72 +62969,61 @@
   <sheetData>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="B2" s="61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I2" s="62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>412</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="24"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
-        <v>418</v>
-      </c>
+      <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -62738,517 +63031,658 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="26"/>
+        <v>258</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>283</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H5" s="26"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
-        <v>259</v>
-      </c>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>427</v>
+        <v>336</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.5">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.5">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="B14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" s="114" customFormat="1" ht="43.5">
-      <c r="A8" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="F8" s="99" t="s">
+      <c r="I14" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" s="113" customFormat="1" ht="43.5">
+      <c r="A15" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+    </row>
+    <row r="16" spans="1:10" s="113" customFormat="1" ht="29">
+      <c r="A16" s="31"/>
+      <c r="B16" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="43.5">
+      <c r="A17" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+    </row>
+    <row r="18" spans="1:10" s="113" customFormat="1" ht="43.5">
+      <c r="A18" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="I18" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="G8" s="99" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="1:10" s="114" customFormat="1" ht="29">
-      <c r="A9" s="31"/>
-      <c r="B9" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.5">
-      <c r="A10" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>398</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>399</v>
-      </c>
-      <c r="E10" s="99" t="s">
+    </row>
+    <row r="19" spans="1:10" s="113" customFormat="1" ht="43.5">
+      <c r="A19" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="98" t="s">
         <v>401</v>
       </c>
-      <c r="F10" s="99" t="s">
-        <v>402</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>400</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>403</v>
-      </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="11" spans="1:10" s="114" customFormat="1" ht="43.5">
-      <c r="A11" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="99" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" s="99" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="99" t="s">
+      <c r="E19" s="98"/>
+      <c r="F19" s="98" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="98" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="113" customFormat="1" ht="43.5">
+      <c r="A20" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="J11" s="99" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="114" customFormat="1" ht="43.5">
-      <c r="A12" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>404</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99" t="s">
+      <c r="G20" s="98"/>
+      <c r="H20" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="I12" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="114" customFormat="1" ht="43.5">
-      <c r="A13" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99" t="s">
-        <v>288</v>
-      </c>
-      <c r="I13" s="99" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" s="99" t="s">
+      <c r="I20" s="98" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="29">
-      <c r="A14" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>373</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>344</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99" t="s">
+      <c r="J20" s="98" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="98" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="99" t="s">
-        <v>352</v>
-      </c>
-      <c r="G15" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.5">
-      <c r="A16" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99" t="s">
-        <v>344</v>
-      </c>
-      <c r="F16" s="99" t="s">
-        <v>354</v>
-      </c>
-      <c r="G16" s="99" t="s">
-        <v>346</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.5">
-      <c r="A17" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>347</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.5">
-      <c r="A18" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99" t="s">
-        <v>354</v>
-      </c>
-      <c r="G18" s="99" t="s">
-        <v>350</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-    </row>
-    <row r="19" spans="1:10" s="82" customFormat="1" ht="43.5">
-      <c r="A19" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>382</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>381</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>406</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81" t="s">
-        <v>291</v>
-      </c>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29">
       <c r="A21" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+        <v>352</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.5">
+      <c r="B22" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="B23" s="109" t="s">
-        <v>282</v>
-      </c>
-      <c r="C23" s="109" t="s">
-        <v>366</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>367</v>
-      </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
+        <v>352</v>
+      </c>
+      <c r="B23" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.5">
       <c r="A24" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.5">
+      <c r="A25" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.5">
+      <c r="A26" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26" s="98" t="s">
+        <v>347</v>
+      </c>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" spans="1:10" s="81" customFormat="1" ht="43.5">
+      <c r="A27" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="29">
+      <c r="A28" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="29">
+      <c r="A29" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1">
+      <c r="A30" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>364</v>
+      </c>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" customHeight="1">
+      <c r="A32" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1">
+      <c r="A33" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -63274,31 +63708,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="117" t="s">
-        <v>414</v>
+      <c r="A4" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D689D5E-4825-4924-A4CB-6F6F4AF7EDF7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB6335-7078-405A-90D8-0DBAF581B28A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" firstSheet="2" activeTab="7" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ENV" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$1:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="449">
   <si>
     <t>order</t>
     <phoneticPr fontId="1"/>
@@ -1124,14 +1124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>isAdmin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>page</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1179,10 +1171,6 @@
   </si>
   <si>
     <t>args</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>token</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1262,14 +1250,6 @@
   <si>
     <t>7/1</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>allFilter</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・チェックした項目に対するアクションメニュー（削除）</t>
@@ -1407,10 +1387,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>currentPost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GET /posts/{posts.id}で代用　一応残すが使わない</t>
     <rPh sb="22" eb="24">
       <t>ダイヨウ</t>
@@ -1428,10 +1404,6 @@
   </si>
   <si>
     <t>createPost</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2531,16 +2503,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>myPosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GET /posts/自ユーザID
 redux state(posts.myPosts)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>myPostsSelected</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2549,18 +2513,6 @@
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>App</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>snackbarQueue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[string]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3075,10 +3027,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[Post.postId]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>token: string</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3179,10 +3127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tasksInProgress</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>startProgress</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3255,25 +3199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>emailVerified</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>earnedComments</t>
-  </si>
-  <si>
-    <t>earnedLikes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>earnedViews</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>from firebase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sendEmailVerification</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3315,26 +3240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mapLat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mapLng</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mapZoomLevel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>limitCountOfGrid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>posts</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3355,6 +3260,49 @@
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/posts/stats</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計情報を取得</t>
+    <rPh sb="0" eb="4">
+      <t>トウケイジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posts.stats</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxViewCount:number
+maxLikedCount:number
+maxCommentsCount:number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>travelr-fe/config/types.tsで管理</t>
+    <rPh sb="27" eb="29">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setupFilterSelectorRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>criterion: FilterCriterionToFetch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changeFilterCriterion</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3558,7 +3506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3707,43 +3655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3751,7 +3662,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3933,15 +3844,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4074,12 +3976,6 @@
     <xf numFmtId="49" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4089,16 +3985,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4116,13 +4003,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4556,9 +4437,9 @@
   </sheetPr>
   <dimension ref="A1:BB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
+      <selection pane="bottomLeft" activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -4639,31 +4520,31 @@
       <c r="AB1" s="43"/>
       <c r="AC1" s="45"/>
       <c r="AD1" s="44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="45"/>
       <c r="AI1" s="44" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
       <c r="AM1" s="43"/>
       <c r="AN1" s="45"/>
       <c r="AO1" s="44" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="AP1" s="43"/>
       <c r="AQ1" s="43"/>
       <c r="AR1" s="43"/>
       <c r="AS1" s="45"/>
       <c r="AT1" s="44" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="AU1" s="43"/>
       <c r="AV1" s="43"/>
@@ -5067,7 +4948,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="47">
         <v>4</v>
@@ -5197,7 +5078,7 @@
     </row>
     <row r="10" spans="1:54">
       <c r="B10" s="47" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C10" s="47">
         <v>1</v>
@@ -5345,7 +5226,7 @@
     <row r="12" spans="1:54">
       <c r="A12" s="47"/>
       <c r="B12" s="47" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C12" s="47">
         <v>3</v>
@@ -5415,7 +5296,7 @@
     <row r="13" spans="1:54">
       <c r="A13" s="47"/>
       <c r="B13" s="47" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -5479,7 +5360,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -61270,13 +61151,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -61296,13 +61177,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
@@ -61492,13 +61373,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>
@@ -61510,7 +61391,7 @@
     <col min="5" max="5" width="16.83203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="20.9140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="18" customWidth="1"/>
     <col min="9" max="9" width="45.9140625" style="18" customWidth="1"/>
     <col min="10" max="11" width="24.1640625" style="18" customWidth="1"/>
     <col min="12" max="12" width="24.1640625" style="18" bestFit="1" customWidth="1"/>
@@ -61540,7 +61421,7 @@
         <v>50</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>125</v>
@@ -61566,7 +61447,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>120</v>
@@ -61576,48 +61457,48 @@
         <v>58</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" s="119" customFormat="1" ht="29">
-      <c r="A3" s="119">
+    <row r="3" spans="1:12" s="111" customFormat="1" ht="29">
+      <c r="A3" s="111">
         <v>1</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="121" t="s">
+      <c r="B3" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="121" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="122" t="s">
+      <c r="D3" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121" t="s">
-        <v>412</v>
-      </c>
-      <c r="I3" s="122" t="s">
-        <v>332</v>
-      </c>
-      <c r="J3" s="121" t="s">
-        <v>331</v>
-      </c>
-      <c r="K3" s="122" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113" t="s">
+        <v>399</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="123"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="1:12" s="30" customFormat="1" ht="29">
       <c r="A4" s="18">
@@ -61636,7 +61517,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
       <c r="H4" s="16" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>122</v>
@@ -61722,11 +61603,11 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="34" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34" t="s">
@@ -61758,7 +61639,7 @@
         <v>130</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>141</v>
@@ -61791,7 +61672,7 @@
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J9" s="33" t="s">
         <v>107</v>
@@ -61799,282 +61680,295 @@
       <c r="K9" s="33"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" s="31" customFormat="1" ht="58">
+    <row r="10" spans="1:12" s="31" customFormat="1" ht="43.5">
       <c r="A10" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="86" t="s">
-        <v>326</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="31" customFormat="1" ht="87">
+        <v>442</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" s="31" customFormat="1" ht="58">
       <c r="A11" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>185</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="83" t="s">
+        <v>319</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:12" s="31" customFormat="1" ht="29">
+        <v>187</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="31" customFormat="1" ht="87">
       <c r="A12" s="31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="G12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>136</v>
+      </c>
       <c r="J12" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="87" customFormat="1">
-      <c r="A13" s="87">
+    <row r="13" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" s="84" customFormat="1">
+      <c r="A14" s="84">
         <v>11</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B14" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C14" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D14" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90" t="s">
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K14" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="31" customFormat="1" ht="29">
-      <c r="A14" s="31">
-        <v>12</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="35"/>
+      <c r="L14" s="88" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="31" customFormat="1" ht="29">
       <c r="A15" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="19"/>
+      <c r="G15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34" t="s">
+        <v>136</v>
+      </c>
       <c r="J15" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" s="92" customFormat="1" ht="29">
-      <c r="A16" s="92">
+    <row r="16" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="A16" s="31">
+        <v>13</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" s="89" customFormat="1" ht="29">
+      <c r="A17" s="89">
         <v>14</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B17" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C17" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D17" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95" t="s">
+      <c r="E17" s="92"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I17" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J17" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="31" customFormat="1" ht="29">
-      <c r="A17" s="31">
+      <c r="K17" s="91"/>
+      <c r="L17" s="88" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="31" customFormat="1" ht="29">
+      <c r="A18" s="31">
         <v>15</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E18" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J18" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" ht="29">
-      <c r="A18" s="18">
+      <c r="K18" s="33"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="29">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="K19" s="16"/>
       <c r="L19" s="17"/>
     </row>
@@ -62096,7 +61990,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -62118,30 +62012,43 @@
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="27" spans="1:12" ht="29">
-      <c r="B27" s="18" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="29">
+      <c r="B28" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I28" s="19" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L18" xr:uid="{B582B6D1-657A-4209-9760-1D0942AA1BB5}">
-    <sortState ref="A2:L18">
-      <sortCondition ref="A1:A18"/>
+  <autoFilter ref="A1:L19" xr:uid="{B582B6D1-657A-4209-9760-1D0942AA1BB5}">
+    <sortState ref="A2:L19">
+      <sortCondition ref="A1:A19"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -62184,7 +62091,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -62198,8 +62105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EF2C2-8F5D-482B-8D1B-02457D7267B7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -62213,18 +62120,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="101.5">
+      <c r="A2" s="93" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="101.5">
-      <c r="A2" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>187</v>
+      <c r="B2" s="93" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="232">
@@ -62232,7 +62139,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
@@ -62240,15 +62147,15 @@
         <v>153</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="217.5">
       <c r="A5" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -62263,7 +62170,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -62271,582 +62178,582 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.08203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.58203125" style="74" customWidth="1"/>
-    <col min="9" max="9" width="23.25" style="74" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="74" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" style="74" customWidth="1"/>
-    <col min="12" max="12" width="43.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="74" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="73"/>
+    <col min="1" max="1" width="16.08203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.08203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.58203125" style="71" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="71" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="71" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="71" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="69" customFormat="1" ht="29">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" s="66" customFormat="1" ht="29">
+      <c r="A1" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" s="99" customFormat="1" ht="43.5">
+      <c r="A2" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" s="99" customFormat="1" ht="29">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+    </row>
+    <row r="4" spans="1:13" ht="72.5">
+      <c r="A4" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" ht="58">
+      <c r="A5" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="H5" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" ht="29">
+      <c r="A6" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" ht="29">
+      <c r="A7" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" s="78" customFormat="1" ht="130.5">
+      <c r="A8" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="78" customFormat="1" ht="29">
+      <c r="A9" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="78" customFormat="1" ht="29">
+      <c r="A10" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="1:13" s="75" customFormat="1" ht="333.5">
+      <c r="A11" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="1:13" s="75" customFormat="1" ht="87">
+      <c r="A12" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="109" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="75" customFormat="1" ht="58">
+      <c r="A13" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="1:13" s="75" customFormat="1" ht="72.5">
+      <c r="A14" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="67" t="s">
+      <c r="C14" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="82" customFormat="1" ht="58">
+      <c r="A15" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="M1" s="68"/>
-    </row>
-    <row r="2" spans="1:13" s="102" customFormat="1" ht="43.5">
-      <c r="A2" s="99" t="s">
+      <c r="K15" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="1:13" s="82" customFormat="1" ht="87">
+      <c r="A16" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="106" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="1:12" s="71" customFormat="1" ht="58">
+      <c r="A17" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="105" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="M2" s="101"/>
-    </row>
-    <row r="3" spans="1:13" s="102" customFormat="1" ht="29">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="105" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
-    </row>
-    <row r="4" spans="1:13" ht="72.5">
-      <c r="A4" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="L4" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="M4" s="72"/>
-    </row>
-    <row r="5" spans="1:13" ht="58">
-      <c r="A5" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72"/>
-    </row>
-    <row r="6" spans="1:13" ht="29">
-      <c r="A6" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
-    </row>
-    <row r="7" spans="1:13" ht="29">
-      <c r="A7" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
-    </row>
-    <row r="8" spans="1:13" s="81" customFormat="1" ht="130.5">
-      <c r="A8" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="80" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18" spans="1:12" s="71" customFormat="1" ht="145">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" s="80" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="81" customFormat="1" ht="29">
-      <c r="A9" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="29">
-      <c r="A10" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79" t="s">
-        <v>386</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" spans="1:13" s="78" customFormat="1" ht="333.5">
-      <c r="A11" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>360</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="K11" s="76" t="s">
-        <v>325</v>
-      </c>
-      <c r="L11" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="M11" s="77"/>
-    </row>
-    <row r="12" spans="1:13" s="78" customFormat="1" ht="87">
-      <c r="A12" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>372</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="114" t="s">
-        <v>398</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>376</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" s="78" customFormat="1" ht="58">
-      <c r="A13" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>318</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" s="78" customFormat="1" ht="72.5">
-      <c r="A14" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-    </row>
-    <row r="15" spans="1:13" s="85" customFormat="1" ht="58">
-      <c r="A15" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="83" t="s">
-        <v>333</v>
-      </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="K15" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-    </row>
-    <row r="16" spans="1:13" s="85" customFormat="1" ht="87">
-      <c r="A16" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="109" t="s">
-        <v>382</v>
-      </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
-    </row>
-    <row r="17" spans="1:12" s="74" customFormat="1" ht="58">
-      <c r="A17" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-    </row>
-    <row r="18" spans="1:12" s="74" customFormat="1" ht="145">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="1:12" s="74" customFormat="1" ht="29">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="104" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="112" t="s">
-        <v>356</v>
-      </c>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
-    </row>
-    <row r="20" spans="1:12" s="74" customFormat="1" ht="29">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71" t="s">
-        <v>425</v>
-      </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:12" s="71" customFormat="1" ht="29">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="101" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="I19" s="68"/>
+      <c r="J19" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
+    </row>
+    <row r="20" spans="1:12" s="71" customFormat="1" ht="29">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -62856,204 +62763,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF6D762-FC4C-4CE1-8630-6F88B4BBB570}">
-  <dimension ref="B2:E23"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.58203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="18"/>
+    <col min="1" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B2" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="18" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B4" s="64"/>
-      <c r="C4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B5" s="64"/>
-      <c r="C5" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B6" s="64"/>
-      <c r="C6" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="18" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B7" s="64"/>
-      <c r="C7" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="24" t="s">
+    <row r="1" spans="1:1" ht="24.5" customHeight="1">
+      <c r="A1" s="116" t="s">
         <v>445</v>
       </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B10" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B11" s="64"/>
-      <c r="C11" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B12" s="64"/>
-      <c r="C12" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B13" s="64"/>
-      <c r="C13" s="108" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B14" s="64"/>
-      <c r="C14" s="108" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="115" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B16" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B17" s="124"/>
-      <c r="C17" s="110" t="s">
-        <v>426</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B18" s="124"/>
-      <c r="C18" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B19" s="124"/>
-      <c r="C19" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="31.5" customHeight="1">
-      <c r="B20" s="118"/>
-      <c r="C20" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="2:4" ht="24.5" customHeight="1">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="19"/>
-    </row>
+    </row>
+    <row r="12" spans="1:1" ht="57.5" customHeight="1"/>
+    <row r="21" ht="31.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63066,13 +62793,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.08203125" defaultRowHeight="30" customHeight="1"/>
@@ -63092,35 +62819,35 @@
   <sheetData>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="B2" s="61" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="61" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I2" s="62" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -63132,21 +62859,21 @@
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -63154,64 +62881,64 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -63224,7 +62951,7 @@
     <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -63237,10 +62964,10 @@
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -63252,10 +62979,10 @@
     <row r="10" spans="1:10" ht="43.5">
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -63267,7 +62994,7 @@
     <row r="11" spans="1:10" ht="14.5">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -63280,10 +63007,10 @@
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -63294,494 +63021,522 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" s="113" customFormat="1" ht="43.5">
+    <row r="14" spans="1:10" s="108" customFormat="1" ht="43.5">
       <c r="A14" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" s="108" customFormat="1" ht="29">
+      <c r="A15" s="31"/>
+      <c r="B15" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="108" customFormat="1" ht="14.5">
+      <c r="A16" s="31"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="17" spans="1:10" s="108" customFormat="1" ht="14.5">
+      <c r="A17" s="31"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+    </row>
+    <row r="18" spans="1:10" ht="43.5">
+      <c r="A18" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" s="95" t="s">
+        <v>381</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+    </row>
+    <row r="19" spans="1:10" s="108" customFormat="1" ht="43.5">
+      <c r="A19" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="108" customFormat="1" ht="43.5">
+      <c r="A20" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="I20" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" s="95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="108" customFormat="1" ht="43.5">
+      <c r="A21" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="97" t="s">
-        <v>365</v>
-      </c>
-      <c r="E14" s="97" t="s">
-        <v>338</v>
-      </c>
-      <c r="F14" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-    </row>
-    <row r="15" spans="1:10" s="113" customFormat="1" ht="29">
-      <c r="A15" s="31"/>
-      <c r="B15" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>365</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.5">
-      <c r="A16" s="31" t="s">
+      <c r="G21" s="95"/>
+      <c r="H21" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29">
+      <c r="A22" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.5">
+      <c r="B23" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95" t="s">
+        <v>438</v>
+      </c>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+    </row>
+    <row r="24" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="B16" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>391</v>
-      </c>
-      <c r="D16" s="98" t="s">
-        <v>392</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>394</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>393</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>396</v>
-      </c>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-    </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" ht="43.5">
-      <c r="A17" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>380</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="98" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="98" t="s">
-        <v>281</v>
-      </c>
-      <c r="I17" s="98" t="s">
-        <v>249</v>
-      </c>
-      <c r="J17" s="98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" ht="43.5">
-      <c r="A18" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>397</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98" t="s">
-        <v>321</v>
-      </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="I18" s="97" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" ht="43.5">
-      <c r="A19" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="I19" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="J19" s="98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B20" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="98" t="s">
+      <c r="D24" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="F20" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.5">
-      <c r="B21" s="97" t="s">
-        <v>460</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98" t="s">
-        <v>462</v>
-      </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-    </row>
-    <row r="22" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B22" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="97" t="s">
-        <v>383</v>
-      </c>
-      <c r="D22" s="97" t="s">
-        <v>366</v>
-      </c>
-      <c r="E22" s="97" t="s">
-        <v>338</v>
-      </c>
-      <c r="F22" s="98" t="s">
-        <v>347</v>
-      </c>
-      <c r="G22" s="98" t="s">
-        <v>335</v>
-      </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.5">
-      <c r="A23" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B23" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>340</v>
-      </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98" t="s">
-        <v>339</v>
-      </c>
-      <c r="F23" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="G23" s="98" t="s">
-        <v>341</v>
-      </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.5">
-      <c r="A24" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="G24" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
+      <c r="G24" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
     </row>
     <row r="25" spans="1:10" ht="14.5">
       <c r="A25" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B25" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-    </row>
-    <row r="26" spans="1:10" s="81" customFormat="1" ht="43.5">
+      <c r="C25" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.5">
       <c r="A26" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="80" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="G26" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="H26" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="29">
+        <v>341</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.5">
       <c r="A27" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="29">
+        <v>341</v>
+      </c>
+      <c r="B27" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+    </row>
+    <row r="28" spans="1:10" s="78" customFormat="1" ht="43.5">
       <c r="A28" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1">
+        <v>359</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="29">
       <c r="A29" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
+        <v>327</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="29">
       <c r="A30" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="B30" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="108" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="108" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
+        <v>390</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>422</v>
+        <v>271</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="26" t="s">
-        <v>429</v>
+      <c r="F31" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10" ht="30" customHeight="1">
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+        <v>408</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1">
+      <c r="A33" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -63827,11 +63582,11 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="116" t="s">
-        <v>407</v>
+      <c r="A4" s="110" t="s">
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB6335-7078-405A-90D8-0DBAF581B28A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501F480-967A-4EAF-900A-6E34F9EE9C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" firstSheet="2" activeTab="7" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" activeTab="1" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="447">
   <si>
     <t>order</t>
     <phoneticPr fontId="1"/>
@@ -1379,10 +1379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>filterAllPosts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>do</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2453,10 +2449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FETCH_MY_POSTS_SUCCESS
 FETCH_MY_POSTS_FAIL</t>
     <phoneticPr fontId="1"/>
@@ -2509,10 +2501,6 @@
   </si>
   <si>
     <t>redux state(posts.myPostsSelected)の更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2601,10 +2589,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>criterion: FilterCriterion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user: UserStore</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2626,10 +2610,6 @@
   <si>
     <t>CREATE_POST_SUCCESS
 CREATE_POST_FAIL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3019,10 +2999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[Post]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3094,19 +3070,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サインインしました
 サインインに失敗しました</t>
     <rPh sb="16" eb="18">
       <t>シッパイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3294,15 +3262,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>setupFilterSelectorRange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>criterion: FilterCriterionToFetch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>saveMapZoomAndCenter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAVE_MAP_ZOOM_AND_CENTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>criterion: FilterCriterion,
+criterionUntouched: FilterCriterion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getFilterSelectorRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clearFilterCriterion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>changeFilterCriterion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並べ替え：Action(test),ActionType,Reducer(test),Epic(test)</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3662,7 +3661,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4004,6 +4003,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4438,8 +4443,10 @@
   <dimension ref="A1:BB1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE15" sqref="AE15"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -4530,21 +4537,21 @@
         <v>212</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
       <c r="AM1" s="43"/>
       <c r="AN1" s="45"/>
       <c r="AO1" s="44" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AP1" s="43"/>
       <c r="AQ1" s="43"/>
       <c r="AR1" s="43"/>
       <c r="AS1" s="45"/>
       <c r="AT1" s="44" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AU1" s="43"/>
       <c r="AV1" s="43"/>
@@ -5078,7 +5085,7 @@
     </row>
     <row r="10" spans="1:54">
       <c r="B10" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="47">
         <v>1</v>
@@ -5213,7 +5220,9 @@
       <c r="AQ11" s="50"/>
       <c r="AR11" s="50"/>
       <c r="AS11" s="52"/>
-      <c r="AT11" s="51"/>
+      <c r="AT11" s="51">
+        <v>1</v>
+      </c>
       <c r="AU11" s="50"/>
       <c r="AV11" s="50"/>
       <c r="AW11" s="50"/>
@@ -5296,7 +5305,7 @@
     <row r="13" spans="1:54">
       <c r="A13" s="47"/>
       <c r="B13" s="47" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -5360,7 +5369,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -5470,9 +5479,7 @@
       <c r="AQ15" s="50"/>
       <c r="AR15" s="50"/>
       <c r="AS15" s="52"/>
-      <c r="AT15" s="51">
-        <v>2</v>
-      </c>
+      <c r="AT15" s="51"/>
       <c r="AU15" s="50"/>
       <c r="AV15" s="50"/>
       <c r="AW15" s="50"/>
@@ -60872,8 +60879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4E9A2-CB3D-4BB6-B913-4E56EF8C4F22}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="23.5" customHeight="1"/>
@@ -61151,13 +61158,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -61177,13 +61184,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
@@ -61447,7 +61454,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>120</v>
@@ -61457,13 +61464,13 @@
         <v>58</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -61473,13 +61480,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="113" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E3" s="114" t="s">
         <v>120</v>
@@ -61487,13 +61494,13 @@
       <c r="F3" s="113"/>
       <c r="G3" s="113"/>
       <c r="H3" s="113" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I3" s="114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J3" s="113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="114" t="s">
         <v>135</v>
@@ -61517,7 +61524,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
       <c r="H4" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>122</v>
@@ -61603,11 +61610,11 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="34" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34" t="s">
@@ -61639,7 +61646,7 @@
         <v>130</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>141</v>
@@ -61685,23 +61692,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="33" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="35"/>
@@ -61721,11 +61728,11 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>187</v>
@@ -61737,7 +61744,7 @@
         <v>137</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="31" customFormat="1" ht="87">
@@ -61825,7 +61832,7 @@
         <v>137</v>
       </c>
       <c r="L14" s="88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="31" customFormat="1" ht="29">
@@ -61863,7 +61870,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>28</v>
@@ -61913,7 +61920,7 @@
       </c>
       <c r="K17" s="91"/>
       <c r="L17" s="88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" ht="29">
@@ -62091,7 +62098,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -62139,7 +62146,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
@@ -62155,7 +62162,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -62170,10 +62177,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -62209,25 +62216,25 @@
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>169</v>
       </c>
       <c r="H1" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="64" t="s">
-        <v>253</v>
-      </c>
       <c r="J1" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>210</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M1" s="65"/>
     </row>
@@ -62237,24 +62244,24 @@
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97"/>
       <c r="G2" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I2" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M2" s="98"/>
     </row>
@@ -62262,16 +62269,16 @@
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="97"/>
       <c r="F3" s="97"/>
       <c r="G3" s="97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H3" s="97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" s="97"/>
       <c r="J3" s="97"/>
@@ -62281,32 +62288,32 @@
     </row>
     <row r="4" spans="1:13" ht="72.5">
       <c r="A4" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="C4" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="D4" s="68" t="s">
         <v>266</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>267</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
       <c r="H4" s="68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="69"/>
     </row>
@@ -62321,7 +62328,7 @@
         <v>162</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
@@ -62329,7 +62336,7 @@
         <v>173</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -62370,7 +62377,7 @@
         <v>194</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>159</v>
@@ -62392,33 +62399,33 @@
         <v>207</v>
       </c>
       <c r="B8" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>297</v>
-      </c>
       <c r="E8" s="77" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J8" s="77"/>
       <c r="K8" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L8" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="78" customFormat="1" ht="29">
@@ -62427,24 +62434,24 @@
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="77" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F9" s="77"/>
       <c r="G9" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
       <c r="K9" s="76"/>
       <c r="L9" s="77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="78" customFormat="1" ht="29">
@@ -62457,11 +62464,11 @@
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="76" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>178</v>
@@ -62482,29 +62489,29 @@
         <v>163</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F11" s="73"/>
       <c r="G11" s="73" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K11" s="73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M11" s="74"/>
     </row>
@@ -62513,62 +62520,62 @@
         <v>148</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D12" s="73"/>
       <c r="E12" s="73" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="73" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I12" s="73"/>
       <c r="J12" s="109" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="74"/>
     </row>
     <row r="13" spans="1:13" s="75" customFormat="1" ht="58">
       <c r="A13" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="C13" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="D13" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="E13" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>224</v>
-      </c>
       <c r="H13" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
@@ -62588,10 +62595,10 @@
         <v>167</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G14" s="73" t="s">
         <v>168</v>
@@ -62599,7 +62606,7 @@
       <c r="H14" s="73"/>
       <c r="I14" s="73"/>
       <c r="J14" s="73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K14" s="73"/>
       <c r="L14" s="73"/>
@@ -62620,17 +62627,17 @@
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K15" s="80" t="s">
         <v>191</v>
@@ -62653,15 +62660,15 @@
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
       <c r="J16" s="106" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -62681,10 +62688,10 @@
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
@@ -62695,18 +62702,18 @@
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
       <c r="C18" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="68" t="s">
         <v>283</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>284</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
@@ -62717,20 +62724,20 @@
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="101" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
       <c r="H19" s="68" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I19" s="68"/>
       <c r="J19" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K19" s="67"/>
       <c r="L19" s="68"/>
@@ -62739,16 +62746,16 @@
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="101" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
       <c r="H20" s="68" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I20" s="68"/>
       <c r="J20" s="107"/>
@@ -62776,7 +62783,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24.5" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="57.5" customHeight="1"/>
@@ -62793,750 +62800,723 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.08203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.08203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.4140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.9140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="30.4140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="18" customWidth="1"/>
-    <col min="8" max="8" width="40.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.58203125" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="24.08203125" style="18"/>
+    <col min="1" max="1" width="10.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.4140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.9140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="40.25" style="18" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.58203125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="24.08203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>206</v>
+      </c>
       <c r="B2" s="61" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
-        <v>420</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>327</v>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
-        <v>398</v>
-      </c>
+      <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>327</v>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="B6" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="H6" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24" t="s">
-        <v>422</v>
-      </c>
+      <c r="B7" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24" t="s">
-        <v>423</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>424</v>
-      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.5">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>425</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.5">
+      <c r="A10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24" t="s">
-        <v>428</v>
-      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5">
+      <c r="A11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>427</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>406</v>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>405</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="26"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>398</v>
+      </c>
       <c r="G13" s="26" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" s="108" customFormat="1" ht="43.5">
-      <c r="A14" s="31" t="s">
-        <v>327</v>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" s="108" customFormat="1" ht="43.5">
+      <c r="A14" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>237</v>
+        <v>438</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>308</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>293</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G14" s="95"/>
       <c r="H14" s="95"/>
       <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-    </row>
-    <row r="15" spans="1:10" s="108" customFormat="1" ht="29">
-      <c r="A15" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.5">
+      <c r="A15" s="94" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="94"/>
+        <v>374</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>378</v>
+      </c>
       <c r="F15" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="95"/>
+        <v>376</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>379</v>
+      </c>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
-      <c r="J15" s="95" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="108" customFormat="1" ht="14.5">
-      <c r="A16" s="31"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94" t="s">
-        <v>448</v>
-      </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-    </row>
-    <row r="17" spans="1:10" s="108" customFormat="1" ht="14.5">
-      <c r="A17" s="31"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
+    </row>
+    <row r="16" spans="1:9" s="108" customFormat="1" ht="43.5">
+      <c r="A16" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="95" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="95" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="108" customFormat="1" ht="43.5">
+      <c r="A17" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95" t="s">
+        <v>313</v>
+      </c>
       <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-    </row>
-    <row r="18" spans="1:10" ht="43.5">
-      <c r="A18" s="31" t="s">
-        <v>359</v>
+      <c r="G17" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="95" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="108" customFormat="1" ht="43.5">
+      <c r="A18" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" s="95" t="s">
-        <v>380</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D18" s="94"/>
       <c r="E18" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="F18" s="95" t="s">
-        <v>383</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F18" s="95"/>
       <c r="G18" s="95" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-    </row>
-    <row r="19" spans="1:10" s="108" customFormat="1" ht="43.5">
-      <c r="A19" s="31" t="s">
-        <v>359</v>
+        <v>242</v>
+      </c>
+      <c r="I18" s="95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29">
+      <c r="A19" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>217</v>
+        <v>364</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>351</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="95"/>
+        <v>330</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>239</v>
+      </c>
       <c r="F19" s="95" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G19" s="95" t="s">
-        <v>358</v>
-      </c>
-      <c r="H19" s="95" t="s">
-        <v>274</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H19" s="95"/>
       <c r="I19" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="108" customFormat="1" ht="43.5">
-      <c r="A20" s="31" t="s">
-        <v>327</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5">
+      <c r="A20" s="94" t="s">
+        <v>428</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="95" t="s">
-        <v>385</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="95"/>
       <c r="F20" s="95" t="s">
-        <v>314</v>
+        <v>430</v>
       </c>
       <c r="G20" s="95"/>
-      <c r="H20" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="I20" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="95" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="108" customFormat="1" ht="43.5">
-      <c r="A21" s="31" t="s">
-        <v>327</v>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="94"/>
+        <v>329</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>337</v>
+      </c>
       <c r="F21" s="95" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="G21" s="95"/>
-      <c r="H21" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="29">
-      <c r="A22" s="31" t="s">
-        <v>341</v>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5">
+      <c r="A22" s="94" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>369</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C22" s="95"/>
       <c r="D22" s="95" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="E22" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="F22" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="H22" s="95" t="s">
-        <v>278</v>
-      </c>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="95"/>
-      <c r="J22" s="95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.5">
+    </row>
+    <row r="23" spans="1:9" ht="14.5">
+      <c r="A23" s="94" t="s">
+        <v>6</v>
+      </c>
       <c r="B23" s="94" t="s">
-        <v>436</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>437</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C23" s="95"/>
       <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95" t="s">
-        <v>438</v>
-      </c>
+      <c r="E23" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="95"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-    </row>
-    <row r="24" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>341</v>
+    </row>
+    <row r="24" spans="1:9" ht="14.5">
+      <c r="A24" s="94" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="D24" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="94" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95" t="s">
+        <v>338</v>
       </c>
       <c r="F24" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="G24" s="95" t="s">
-        <v>328</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G24" s="95"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.5">
-      <c r="A25" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="B25" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="F25" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.5">
-      <c r="A26" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="B26" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="94" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.5">
-      <c r="A27" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="B27" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="G27" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-    </row>
-    <row r="28" spans="1:10" s="78" customFormat="1" ht="43.5">
-      <c r="A28" s="31" t="s">
-        <v>359</v>
+    </row>
+    <row r="25" spans="1:9" s="118" customFormat="1" ht="43.5">
+      <c r="A25" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="118" customFormat="1" ht="14.5">
+      <c r="A26" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:9" s="118" customFormat="1" ht="14.5">
+      <c r="A27" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+    </row>
+    <row r="28" spans="1:9" s="78" customFormat="1" ht="43.5">
+      <c r="A28" s="76" t="s">
+        <v>203</v>
       </c>
       <c r="B28" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29">
+      <c r="A29" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>363</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77" t="s">
+      <c r="B29" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="G28" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="H28" s="77" t="s">
+      <c r="F29" s="77"/>
+      <c r="G29" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="29">
-      <c r="A29" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77" t="s">
+      <c r="H29" s="77"/>
+      <c r="I29" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29">
+      <c r="A30" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="29">
-      <c r="A30" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1">
-      <c r="A31" s="31" t="s">
-        <v>341</v>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>345</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C31" s="24"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="24" t="s">
+        <v>343</v>
+      </c>
       <c r="F31" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>347</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>408</v>
+    </row>
+    <row r="32" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="105" t="s">
+        <v>270</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>350</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D32" s="105"/>
       <c r="E32" s="105"/>
       <c r="F32" s="105"/>
       <c r="G32" s="105"/>
       <c r="H32" s="105"/>
       <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>408</v>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>413</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="26" t="s">
-        <v>415</v>
-      </c>
+      <c r="F33" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" customHeight="1">
-      <c r="A34" s="31" t="s">
-        <v>327</v>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>414</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="26" t="s">
-        <v>416</v>
-      </c>
+      <c r="F34" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1">
+      <c r="A35" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1">
+      <c r="A37" s="18" t="s">
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -63583,10 +63563,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="110" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" t="s">
         <v>394</v>
-      </c>
-      <c r="B4" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501F480-967A-4EAF-900A-6E34F9EE9C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8041C0-E242-4261-83BC-D19554791660}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" activeTab="1" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -4442,11 +4442,11 @@
   </sheetPr>
   <dimension ref="A1:BB1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="AX15" sqref="AX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -5223,8 +5223,12 @@
       <c r="AT11" s="51">
         <v>1</v>
       </c>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
+      <c r="AU11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="50">
+        <v>1</v>
+      </c>
       <c r="AW11" s="50"/>
       <c r="AX11" s="52"/>
       <c r="AY11" s="47"/>
@@ -5482,7 +5486,9 @@
       <c r="AT15" s="51"/>
       <c r="AU15" s="50"/>
       <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
+      <c r="AW15" s="50">
+        <v>1</v>
+      </c>
       <c r="AX15" s="52"/>
       <c r="AY15" s="47"/>
       <c r="AZ15" s="47"/>
@@ -60879,7 +60885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4E9A2-CB3D-4BB6-B913-4E56EF8C4F22}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -61383,10 +61389,10 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8041C0-E242-4261-83BC-D19554791660}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA866D1-76AB-48C7-BC76-22519E27A356}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
@@ -4443,10 +4443,10 @@
   <dimension ref="A1:BB1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX15" sqref="AX15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -5154,7 +5154,9 @@
       <c r="C11" s="47">
         <v>10</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="47">
+        <v>15</v>
+      </c>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -5244,7 +5246,9 @@
       <c r="C12" s="47">
         <v>3</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="47">
+        <v>5</v>
+      </c>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -5311,8 +5315,12 @@
       <c r="B13" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="47">
+        <v>2</v>
+      </c>
+      <c r="D13" s="47">
+        <v>2</v>
+      </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
@@ -5375,8 +5383,12 @@
       <c r="B14" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47">
+        <v>1</v>
+      </c>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
@@ -5437,7 +5449,9 @@
       <c r="C15" s="47">
         <v>5</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="47">
+        <v>4</v>
+      </c>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
@@ -5489,7 +5503,9 @@
       <c r="AW15" s="50">
         <v>1</v>
       </c>
-      <c r="AX15" s="52"/>
+      <c r="AX15" s="52">
+        <v>1</v>
+      </c>
       <c r="AY15" s="47"/>
       <c r="AZ15" s="47"/>
       <c r="BA15" s="47"/>
@@ -60886,7 +60902,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="23.5" customHeight="1"/>
@@ -61389,10 +61405,10 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA866D1-76AB-48C7-BC76-22519E27A356}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDF0D02-1515-418A-8C7C-B1BD4778312C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
@@ -4446,7 +4446,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDF0D02-1515-418A-8C7C-B1BD4778312C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3FC4F2-9971-4DF8-B7EE-73AF48C2F576}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" activeTab="1" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{1DBB4F8D-1F39-4E53-BC50-E24BF730D531}">
+    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{DE86993A-9F07-47AD-95B1-46750D1E9CAB}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{DE86993A-9F07-47AD-95B1-46750D1E9CAB}">
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{9FF86F8F-1338-43F4-B41E-071B1F21AA7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U9" authorId="0" shapeId="0" xr:uid="{1D1BA909-E786-4892-8420-E3F63A952325}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>4h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0" shapeId="0" xr:uid="{125FED71-FEF5-4E9C-BB2B-DE13416B010C}">
       <text>
         <r>
           <rPr>
@@ -103,37 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="0" shapeId="0" xr:uid="{9FF86F8F-1338-43F4-B41E-071B1F21AA7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>2h</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{1D1BA909-E786-4892-8420-E3F63A952325}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>4h</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{61209589-B093-4158-8353-95C84EA0805A}">
+    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{61209589-B093-4158-8353-95C84EA0805A}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y11" authorId="0" shapeId="0" xr:uid="{32CED907-F98C-4148-AD75-3B235776A52A}">
+    <comment ref="Y10" authorId="0" shapeId="0" xr:uid="{32CED907-F98C-4148-AD75-3B235776A52A}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC11" authorId="0" shapeId="0" xr:uid="{2675E742-B041-4AE4-BBCD-EF6A36D5C4E7}">
+    <comment ref="AC10" authorId="0" shapeId="0" xr:uid="{2675E742-B041-4AE4-BBCD-EF6A36D5C4E7}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP13" authorId="0" shapeId="0" xr:uid="{C0AF02D2-7267-447D-ACA2-7944FC6A8497}">
+    <comment ref="AP12" authorId="0" shapeId="0" xr:uid="{C0AF02D2-7267-447D-ACA2-7944FC6A8497}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ13" authorId="0" shapeId="0" xr:uid="{B5F4F385-F50D-4E3C-A2B8-01D2C3FA6825}">
+    <comment ref="AQ12" authorId="0" shapeId="0" xr:uid="{B5F4F385-F50D-4E3C-A2B8-01D2C3FA6825}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="0" shapeId="0" xr:uid="{0B4DA3AD-CE3A-4FA1-8D34-EFA83171A421}">
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{0B4DA3AD-CE3A-4FA1-8D34-EFA83171A421}">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{4A3520F3-A1A6-40F6-B389-DD27092D7071}">
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{4A3520F3-A1A6-40F6-B389-DD27092D7071}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="452">
   <si>
     <t>order</t>
     <phoneticPr fontId="1"/>
@@ -837,15 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>middleware</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>authentication.
-checkToken</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>authentication.checkToken</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1358,10 +1349,6 @@
   <si>
     <t>component
 state</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Page, Component, Redux State/Action</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3304,6 +3291,65 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1コンポーネント1日</t>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一律5日</t>
+    <rPh sb="0" eb="2">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ファンクション1日</t>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10カラムorルート　1日</t>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40カラムorルート1日</t>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一律4日</t>
+    <rPh sb="0" eb="2">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページ1日</t>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3449,7 +3495,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3501,6 +3547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3661,7 +3713,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4011,78 +4063,34 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{B4EE9C1D-BA6D-42DE-A93D-8A2C33979290}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FFF4C7C3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7E1CD"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4C7C3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7E1CD"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4C7C3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7E1CD"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFF4C7C3"/>
@@ -4440,13 +4448,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BB1003"/>
+  <dimension ref="A1:BB1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD17" sqref="AD17"/>
+      <selection pane="bottomRight" activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5"/>
@@ -4479,7 +4487,8 @@
     <col min="46" max="46" width="2.58203125" style="59" customWidth="1"/>
     <col min="47" max="49" width="2.58203125" style="58" customWidth="1"/>
     <col min="50" max="50" width="2.58203125" style="60" customWidth="1"/>
-    <col min="51" max="16384" width="13.25" style="46"/>
+    <col min="51" max="51" width="20.4140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="13.25" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
@@ -4527,31 +4536,31 @@
       <c r="AB1" s="43"/>
       <c r="AC1" s="45"/>
       <c r="AD1" s="44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="45"/>
       <c r="AI1" s="44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
       <c r="AM1" s="43"/>
       <c r="AN1" s="45"/>
       <c r="AO1" s="44" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AP1" s="43"/>
       <c r="AQ1" s="43"/>
       <c r="AR1" s="43"/>
       <c r="AS1" s="45"/>
       <c r="AT1" s="44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AU1" s="43"/>
       <c r="AV1" s="43"/>
@@ -4679,8 +4688,12 @@
       <c r="AV3" s="50"/>
       <c r="AW3" s="50"/>
       <c r="AX3" s="52"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
+      <c r="AY3" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="AZ3" s="47">
+        <v>1.2</v>
+      </c>
       <c r="BA3" s="47"/>
       <c r="BB3" s="47"/>
     </row>
@@ -4745,8 +4758,12 @@
       <c r="AV4" s="50"/>
       <c r="AW4" s="50"/>
       <c r="AX4" s="52"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
+      <c r="AY4" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="AZ4" s="47">
+        <v>1</v>
+      </c>
       <c r="BA4" s="47"/>
       <c r="BB4" s="47"/>
     </row>
@@ -4811,79 +4828,83 @@
       <c r="AV5" s="50"/>
       <c r="AW5" s="50"/>
       <c r="AX5" s="52"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
+      <c r="AY5" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="AZ5" s="47">
+        <v>1</v>
+      </c>
       <c r="BA5" s="47"/>
       <c r="BB5" s="47"/>
     </row>
-    <row r="6" spans="1:54">
-      <c r="A6" s="47"/>
-      <c r="B6" s="54" t="s">
+    <row r="6" spans="1:54" s="126" customFormat="1">
+      <c r="A6" s="119"/>
+      <c r="B6" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="119">
         <v>1</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="119">
         <v>1</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51">
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124">
         <v>1</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="124"/>
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="124"/>
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="119"/>
+      <c r="AZ6" s="119"/>
+      <c r="BA6" s="119"/>
+      <c r="BB6" s="119"/>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" s="47"/>
       <c r="B7" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
@@ -4945,8 +4966,12 @@
       <c r="AV7" s="50"/>
       <c r="AW7" s="50"/>
       <c r="AX7" s="52"/>
-      <c r="AY7" s="47"/>
-      <c r="AZ7" s="47"/>
+      <c r="AY7" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="AZ7" s="47">
+        <v>4</v>
+      </c>
       <c r="BA7" s="47"/>
       <c r="BB7" s="47"/>
     </row>
@@ -4954,14 +4979,14 @@
       <c r="A8" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>211</v>
+      <c r="B8" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -4977,13 +5002,13 @@
       <c r="P8" s="50"/>
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
-      <c r="S8" s="50">
-        <v>1</v>
-      </c>
+      <c r="S8" s="50"/>
       <c r="T8" s="51">
         <v>1</v>
       </c>
-      <c r="U8" s="50"/>
+      <c r="U8" s="50">
+        <v>1</v>
+      </c>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
       <c r="X8" s="52"/>
@@ -5013,85 +5038,87 @@
       <c r="AV8" s="50"/>
       <c r="AW8" s="50"/>
       <c r="AX8" s="52"/>
-      <c r="AY8" s="47"/>
-      <c r="AZ8" s="47"/>
+      <c r="AY8" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="AZ8" s="47">
+        <v>1.2</v>
+      </c>
       <c r="BA8" s="47"/>
       <c r="BB8" s="47"/>
     </row>
-    <row r="9" spans="1:54">
-      <c r="B9" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="47">
-        <v>2</v>
-      </c>
-      <c r="D9" s="47">
+    <row r="9" spans="1:54" s="126" customFormat="1">
+      <c r="B9" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="119">
         <v>1</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51">
+      <c r="D9" s="119">
         <v>1</v>
       </c>
-      <c r="U9" s="50">
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="123">
         <v>1</v>
       </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="47"/>
-      <c r="BA9" s="47"/>
-      <c r="BB9" s="47"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="123"/>
+      <c r="AQ9" s="123"/>
+      <c r="AR9" s="123"/>
+      <c r="AS9" s="125"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="123"/>
+      <c r="AV9" s="123"/>
+      <c r="AW9" s="123"/>
+      <c r="AX9" s="125"/>
+      <c r="AY9" s="119"/>
+      <c r="AZ9" s="119"/>
+      <c r="BA9" s="119"/>
+      <c r="BB9" s="119"/>
     </row>
     <row r="10" spans="1:54">
+      <c r="A10" s="47"/>
       <c r="B10" s="47" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="C10" s="47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="47">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="49"/>
@@ -5107,27 +5134,53 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="50">
+        <v>1</v>
+      </c>
+      <c r="T10" s="51">
+        <v>1</v>
+      </c>
       <c r="U10" s="50">
         <v>1</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
+      <c r="V10" s="50">
+        <v>1</v>
+      </c>
+      <c r="W10" s="50">
+        <v>1</v>
+      </c>
+      <c r="X10" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="50">
+        <v>1</v>
+      </c>
       <c r="AB10" s="50"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="51"/>
+      <c r="AC10" s="52">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="51">
+        <v>1</v>
+      </c>
       <c r="AE10" s="50"/>
       <c r="AF10" s="50"/>
       <c r="AG10" s="50"/>
       <c r="AH10" s="52"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="50"/>
+      <c r="AI10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="50">
+        <v>1</v>
+      </c>
       <c r="AL10" s="50"/>
       <c r="AM10" s="50"/>
       <c r="AN10" s="52"/>
@@ -5136,26 +5189,36 @@
       <c r="AQ10" s="50"/>
       <c r="AR10" s="50"/>
       <c r="AS10" s="52"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
+      <c r="AT10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="50">
+        <v>1</v>
+      </c>
       <c r="AW10" s="50"/>
       <c r="AX10" s="52"/>
-      <c r="AY10" s="47"/>
-      <c r="AZ10" s="47"/>
+      <c r="AY10" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="AZ10" s="47">
+        <v>22</v>
+      </c>
       <c r="BA10" s="47"/>
       <c r="BB10" s="47"/>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" s="47"/>
       <c r="B11" s="47" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="C11" s="47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -5173,153 +5236,133 @@
       <c r="R11" s="50"/>
       <c r="S11" s="50"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="50">
-        <v>1</v>
-      </c>
-      <c r="V11" s="50">
-        <v>1</v>
-      </c>
-      <c r="W11" s="50">
-        <v>1</v>
-      </c>
-      <c r="X11" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="50">
-        <v>1</v>
-      </c>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="50"/>
-      <c r="AC11" s="52">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="51">
-        <v>1</v>
-      </c>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="50"/>
       <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="50">
+      <c r="AG11" s="50">
         <v>1</v>
       </c>
-      <c r="AJ11" s="51">
+      <c r="AH11" s="52">
         <v>1</v>
       </c>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="51"/>
       <c r="AK11" s="50">
         <v>1</v>
       </c>
       <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="52"/>
+      <c r="AM11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="52">
+        <v>1</v>
+      </c>
       <c r="AO11" s="51"/>
       <c r="AP11" s="50"/>
       <c r="AQ11" s="50"/>
       <c r="AR11" s="50"/>
       <c r="AS11" s="52"/>
-      <c r="AT11" s="51">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="50">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="50">
-        <v>1</v>
-      </c>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
       <c r="AW11" s="50"/>
       <c r="AX11" s="52"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
+      <c r="AY11" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="AZ11" s="47">
+        <v>5</v>
+      </c>
       <c r="BA11" s="47"/>
       <c r="BB11" s="47"/>
     </row>
-    <row r="12" spans="1:54">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="47">
-        <v>3</v>
-      </c>
-      <c r="D12" s="47">
-        <v>5</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50">
+    <row r="12" spans="1:54" s="126" customFormat="1">
+      <c r="A12" s="119"/>
+      <c r="B12" s="119" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="119">
+        <v>2</v>
+      </c>
+      <c r="D12" s="119">
+        <v>2</v>
+      </c>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="123"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="123"/>
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="123"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="123"/>
+      <c r="AL12" s="123"/>
+      <c r="AM12" s="123"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="123">
         <v>1</v>
       </c>
-      <c r="AH12" s="52">
+      <c r="AQ12" s="123">
         <v>1</v>
       </c>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="50">
+      <c r="AR12" s="123"/>
+      <c r="AS12" s="125"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="123"/>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="123"/>
+      <c r="AX12" s="125"/>
+      <c r="AY12" s="119"/>
+      <c r="AZ12" s="119"/>
+      <c r="BA12" s="119"/>
+      <c r="BB12" s="119"/>
+    </row>
+    <row r="13" spans="1:54">
+      <c r="A13" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="47">
         <v>1</v>
       </c>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50">
+      <c r="D13" s="47">
         <v>1</v>
-      </c>
-      <c r="AN12" s="52">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-    </row>
-    <row r="13" spans="1:54">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="47">
-        <v>2</v>
-      </c>
-      <c r="D13" s="47">
-        <v>2</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
@@ -5354,16 +5397,14 @@
       <c r="AI13" s="50"/>
       <c r="AJ13" s="51"/>
       <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
+      <c r="AL13" s="50">
+        <v>1</v>
+      </c>
       <c r="AM13" s="50"/>
       <c r="AN13" s="52"/>
       <c r="AO13" s="51"/>
-      <c r="AP13" s="50">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="50">
-        <v>1</v>
-      </c>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
       <c r="AR13" s="50"/>
       <c r="AS13" s="52"/>
       <c r="AT13" s="51"/>
@@ -5371,23 +5412,24 @@
       <c r="AV13" s="50"/>
       <c r="AW13" s="50"/>
       <c r="AX13" s="52"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
+      <c r="AY13" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="AZ13" s="47">
+        <v>1</v>
+      </c>
       <c r="BA13" s="47"/>
       <c r="BB13" s="47"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="47" t="s">
-        <v>87</v>
-      </c>
       <c r="B14" s="47" t="s">
-        <v>411</v>
+        <v>94</v>
       </c>
       <c r="C14" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
@@ -5400,8 +5442,12 @@
       <c r="M14" s="50"/>
       <c r="N14" s="52"/>
       <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
+      <c r="P14" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>1</v>
+      </c>
       <c r="R14" s="50"/>
       <c r="S14" s="50"/>
       <c r="T14" s="51"/>
@@ -5422,9 +5468,7 @@
       <c r="AI14" s="50"/>
       <c r="AJ14" s="51"/>
       <c r="AK14" s="50"/>
-      <c r="AL14" s="50">
-        <v>1</v>
-      </c>
+      <c r="AL14" s="50"/>
       <c r="AM14" s="50"/>
       <c r="AN14" s="52"/>
       <c r="AO14" s="51"/>
@@ -5435,23 +5479,26 @@
       <c r="AT14" s="51"/>
       <c r="AU14" s="50"/>
       <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="47"/>
+      <c r="AW14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="52">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="AZ14" s="47">
+        <v>4</v>
+      </c>
       <c r="BA14" s="47"/>
       <c r="BB14" s="47"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="B15" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="47">
-        <v>5</v>
-      </c>
-      <c r="D15" s="47">
-        <v>4</v>
-      </c>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
@@ -5463,12 +5510,8 @@
       <c r="M15" s="50"/>
       <c r="N15" s="52"/>
       <c r="O15" s="50"/>
-      <c r="P15" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="50">
-        <v>1</v>
-      </c>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
@@ -5500,12 +5543,8 @@
       <c r="AT15" s="51"/>
       <c r="AU15" s="50"/>
       <c r="AV15" s="50"/>
-      <c r="AW15" s="50">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="52">
-        <v>1</v>
-      </c>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="52"/>
       <c r="AY15" s="47"/>
       <c r="AZ15" s="47"/>
       <c r="BA15" s="47"/>
@@ -6580,52 +6619,52 @@
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="50"/>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="52"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="52"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="50"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="50"/>
-      <c r="AX35" s="52"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="53"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="53"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="53"/>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="57"/>
       <c r="AY35" s="47"/>
       <c r="AZ35" s="47"/>
       <c r="BA35" s="47"/>
@@ -60783,111 +60822,25 @@
       <c r="BA1002" s="47"/>
       <c r="BB1002" s="47"/>
     </row>
-    <row r="1003" spans="1:54">
-      <c r="A1003" s="47"/>
-      <c r="B1003" s="47"/>
-      <c r="C1003" s="47"/>
-      <c r="D1003" s="47"/>
-      <c r="E1003" s="55"/>
-      <c r="F1003" s="47"/>
-      <c r="G1003" s="47"/>
-      <c r="H1003" s="53"/>
-      <c r="I1003" s="53"/>
-      <c r="J1003" s="56"/>
-      <c r="K1003" s="53"/>
-      <c r="L1003" s="53"/>
-      <c r="M1003" s="53"/>
-      <c r="N1003" s="57"/>
-      <c r="O1003" s="53"/>
-      <c r="P1003" s="53"/>
-      <c r="Q1003" s="53"/>
-      <c r="R1003" s="53"/>
-      <c r="S1003" s="53"/>
-      <c r="T1003" s="56"/>
-      <c r="U1003" s="53"/>
-      <c r="V1003" s="53"/>
-      <c r="W1003" s="53"/>
-      <c r="X1003" s="57"/>
-      <c r="Y1003" s="56"/>
-      <c r="Z1003" s="53"/>
-      <c r="AA1003" s="53"/>
-      <c r="AB1003" s="53"/>
-      <c r="AC1003" s="57"/>
-      <c r="AD1003" s="56"/>
-      <c r="AE1003" s="53"/>
-      <c r="AF1003" s="53"/>
-      <c r="AG1003" s="53"/>
-      <c r="AH1003" s="57"/>
-      <c r="AI1003" s="53"/>
-      <c r="AJ1003" s="56"/>
-      <c r="AK1003" s="53"/>
-      <c r="AL1003" s="53"/>
-      <c r="AM1003" s="53"/>
-      <c r="AN1003" s="57"/>
-      <c r="AO1003" s="56"/>
-      <c r="AP1003" s="53"/>
-      <c r="AQ1003" s="53"/>
-      <c r="AR1003" s="53"/>
-      <c r="AS1003" s="57"/>
-      <c r="AT1003" s="56"/>
-      <c r="AU1003" s="53"/>
-      <c r="AV1003" s="53"/>
-      <c r="AW1003" s="53"/>
-      <c r="AX1003" s="57"/>
-      <c r="AY1003" s="47"/>
-      <c r="AZ1003" s="47"/>
-      <c r="BA1003" s="47"/>
-      <c r="BB1003" s="47"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:AI9 E11:AI103 W10:AI10 E10:U10 E1:AH1">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="W9:AI9 E9:U9 E1:AH1 E10:AI102 E2:AI8 AJ1:AX102">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI9 E11:AI103 W10:AI10 E10:U10 E1:AH1">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AN103">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AN103">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO1:AS103">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO1:AS103">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="W9:AI9 E9:U9 E1:AH1 E10:AI102 E2:AI8 AJ1:AX102">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AX103">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AX103">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60901,8 +60854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4E9A2-CB3D-4BB6-B913-4E56EF8C4F22}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="23.5" customHeight="1"/>
@@ -60948,7 +60901,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.5" customHeight="1">
@@ -61066,7 +61019,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.5" customHeight="1">
@@ -61172,7 +61125,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.5" customHeight="1">
@@ -61180,13 +61133,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -61206,13 +61159,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
@@ -61404,11 +61357,11 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>
@@ -61417,7 +61370,7 @@
     <col min="2" max="2" width="31.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.9140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.9140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" style="18" customWidth="1"/>
@@ -61441,19 +61394,19 @@
         <v>16</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>102</v>
@@ -61476,23 +61429,23 @@
         <v>28</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -61502,30 +61455,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C3" s="113" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="114" t="s">
-        <v>120</v>
+        <v>319</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>444</v>
       </c>
       <c r="F3" s="113"/>
       <c r="G3" s="113"/>
       <c r="H3" s="113" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I3" s="114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J3" s="113" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K3" s="114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" s="115"/>
     </row>
@@ -61546,16 +61499,16 @@
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
       <c r="H4" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4" s="29"/>
     </row>
@@ -61573,7 +61526,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16" t="s">
@@ -61581,7 +61534,7 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>103</v>
@@ -61603,13 +61556,13 @@
         <v>34</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>104</v>
@@ -61632,18 +61585,18 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34" t="s">
         <v>105</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="35"/>
     </row>
@@ -61660,18 +61613,18 @@
       <c r="D8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>120</v>
+      <c r="E8" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>106</v>
@@ -61692,8 +61645,8 @@
       <c r="D9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>120</v>
+      <c r="E9" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34" t="s">
@@ -61701,7 +61654,7 @@
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J9" s="33" t="s">
         <v>107</v>
@@ -61714,23 +61667,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="33" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="35"/>
@@ -61750,23 +61703,23 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>108</v>
       </c>
       <c r="K11" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="31" customFormat="1" ht="87">
@@ -61782,18 +61735,18 @@
       <c r="D12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>120</v>
+      <c r="E12" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>109</v>
@@ -61801,7 +61754,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="31" customFormat="1" ht="29">
+    <row r="13" spans="1:12" s="31" customFormat="1">
       <c r="A13" s="31">
         <v>10</v>
       </c>
@@ -61814,8 +61767,8 @@
       <c r="D13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>120</v>
+      <c r="E13" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -61844,17 +61797,17 @@
       <c r="F14" s="86"/>
       <c r="G14" s="86"/>
       <c r="H14" s="87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I14" s="87"/>
       <c r="J14" s="87" t="s">
         <v>111</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" s="88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="31" customFormat="1" ht="29">
@@ -61870,8 +61823,8 @@
       <c r="D15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>120</v>
+      <c r="E15" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33" t="s">
@@ -61879,7 +61832,7 @@
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>112</v>
@@ -61887,12 +61840,12 @@
       <c r="K15" s="33"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" s="31" customFormat="1" ht="29">
+    <row r="16" spans="1:12" s="31" customFormat="1">
       <c r="A16" s="31">
         <v>13</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>28</v>
@@ -61900,8 +61853,8 @@
       <c r="D16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>120</v>
+      <c r="E16" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -61920,29 +61873,29 @@
         <v>14</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="92"/>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
       <c r="H17" s="92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J17" s="91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K17" s="91"/>
       <c r="L17" s="88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" ht="29">
@@ -61958,8 +61911,8 @@
       <c r="D18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>120</v>
+      <c r="E18" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33" t="s">
@@ -61967,7 +61920,7 @@
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>114</v>
@@ -61975,7 +61928,7 @@
       <c r="K18" s="33"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="29">
+    <row r="19" spans="1:12">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -61989,7 +61942,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -62068,10 +62021,10 @@
     </row>
     <row r="28" spans="1:12" ht="29">
       <c r="B28" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -62114,13 +62067,13 @@
     </row>
     <row r="2" spans="1:3" ht="72.5">
       <c r="A2" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -62149,42 +62102,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5">
       <c r="A2" s="93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="232">
       <c r="A3" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5">
       <c r="A4" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="217.5">
       <c r="A5" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -62225,38 +62178,38 @@
   <sheetData>
     <row r="1" spans="1:13" s="66" customFormat="1" ht="29">
       <c r="A1" s="63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I1" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="64" t="s">
         <v>252</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>255</v>
       </c>
       <c r="M1" s="65"/>
     </row>
@@ -62266,24 +62219,24 @@
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="102" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97"/>
       <c r="G2" s="97" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H2" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="97" t="s">
         <v>254</v>
-      </c>
-      <c r="I2" s="97" t="s">
-        <v>257</v>
       </c>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="97" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M2" s="98"/>
     </row>
@@ -62291,16 +62244,16 @@
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="102" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="97"/>
       <c r="F3" s="97"/>
       <c r="G3" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H3" s="97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I3" s="97"/>
       <c r="J3" s="97"/>
@@ -62310,55 +62263,55 @@
     </row>
     <row r="4" spans="1:13" ht="72.5">
       <c r="A4" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>263</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>266</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
       <c r="H4" s="68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="68" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="58">
       <c r="A5" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
       <c r="G5" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -62368,21 +62321,21 @@
     </row>
     <row r="6" spans="1:13" ht="29">
       <c r="A6" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="68"/>
       <c r="G6" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
@@ -62393,21 +62346,21 @@
     </row>
     <row r="7" spans="1:13" ht="29">
       <c r="A7" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
@@ -62418,82 +62371,82 @@
     </row>
     <row r="8" spans="1:13" s="78" customFormat="1" ht="130.5">
       <c r="A8" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J8" s="77"/>
       <c r="K8" s="77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L8" s="77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="78" customFormat="1" ht="29">
       <c r="A9" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="100" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="77" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F9" s="77"/>
       <c r="G9" s="77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
       <c r="K9" s="76"/>
       <c r="L9" s="77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="78" customFormat="1" ht="29">
       <c r="A10" s="76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="76" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -62502,102 +62455,102 @@
     </row>
     <row r="11" spans="1:13" s="75" customFormat="1" ht="333.5">
       <c r="A11" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F11" s="73"/>
       <c r="G11" s="73" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K11" s="73" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M11" s="74"/>
     </row>
     <row r="12" spans="1:13" s="75" customFormat="1" ht="87">
       <c r="A12" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D12" s="73"/>
       <c r="E12" s="73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I12" s="73"/>
       <c r="J12" s="109" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="74"/>
     </row>
     <row r="13" spans="1:13" s="75" customFormat="1" ht="58">
       <c r="A13" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="E13" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>223</v>
-      </c>
       <c r="H13" s="73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
@@ -62605,30 +62558,30 @@
     </row>
     <row r="14" spans="1:13" s="75" customFormat="1" ht="72.5">
       <c r="A14" s="72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="73" t="s">
         <v>166</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>373</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="73" t="s">
-        <v>168</v>
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="73"/>
       <c r="J14" s="73" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K14" s="73"/>
       <c r="L14" s="73"/>
@@ -62636,61 +62589,61 @@
     </row>
     <row r="15" spans="1:13" s="82" customFormat="1" ht="58">
       <c r="A15" s="79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K15" s="80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L15" s="80"/>
       <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" s="82" customFormat="1" ht="87">
       <c r="A16" s="79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
       <c r="J16" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -62702,18 +62655,18 @@
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
@@ -62724,18 +62677,18 @@
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
       <c r="C18" s="101" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
@@ -62746,20 +62699,20 @@
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="101" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
       <c r="H19" s="68" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I19" s="68"/>
       <c r="J19" s="107" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K19" s="67"/>
       <c r="L19" s="68"/>
@@ -62768,16 +62721,16 @@
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="101" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
       <c r="H20" s="68" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I20" s="68"/>
       <c r="J20" s="107"/>
@@ -62805,7 +62758,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24.5" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="57.5" customHeight="1"/>
@@ -62847,29 +62800,29 @@
   <sheetData>
     <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F2" s="61"/>
       <c r="G2" s="61" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
@@ -62877,7 +62830,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -62892,15 +62845,15 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -62911,24 +62864,24 @@
         <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
@@ -62936,23 +62889,23 @@
         <v>44</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I6" s="26"/>
     </row>
@@ -62961,7 +62914,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -62976,7 +62929,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -62991,10 +62944,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -63008,10 +62961,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -63025,7 +62978,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -63040,10 +62993,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -63057,42 +63010,42 @@
         <v>44</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" s="108" customFormat="1" ht="43.5">
       <c r="A14" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E14" s="95" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G14" s="95"/>
       <c r="H14" s="95"/>
@@ -63103,142 +63056,142 @@
         <v>6</v>
       </c>
       <c r="B15" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="E15" s="95" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>378</v>
-      </c>
       <c r="F15" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="95" t="s">
         <v>376</v>
-      </c>
-      <c r="G15" s="95" t="s">
-        <v>379</v>
       </c>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" s="108" customFormat="1" ht="43.5">
       <c r="A16" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D16" s="95"/>
       <c r="E16" s="95" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F16" s="95" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G16" s="95" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H16" s="95" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I16" s="95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="108" customFormat="1" ht="43.5">
       <c r="A17" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="95" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F17" s="95"/>
       <c r="G17" s="95" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H17" s="94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I17" s="95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="108" customFormat="1" ht="43.5">
       <c r="A18" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D18" s="94"/>
       <c r="E18" s="95" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F18" s="95"/>
       <c r="G18" s="95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I18" s="95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29">
       <c r="A19" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G19" s="95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H19" s="95"/>
       <c r="I19" s="95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="94" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C20" s="95"/>
       <c r="D20" s="95"/>
       <c r="E20" s="95"/>
       <c r="F20" s="95" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G20" s="95"/>
       <c r="H20" s="95"/>
@@ -63246,22 +63199,22 @@
     </row>
     <row r="21" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G21" s="95"/>
       <c r="H21" s="95"/>
@@ -63272,17 +63225,17 @@
         <v>6</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22" s="95"/>
       <c r="D22" s="95" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G22" s="95"/>
       <c r="H22" s="95"/>
@@ -63293,15 +63246,15 @@
         <v>6</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="95"/>
       <c r="E23" s="95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F23" s="95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G23" s="95"/>
       <c r="H23" s="95"/>
@@ -63312,15 +63265,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C24" s="95"/>
       <c r="D24" s="95"/>
       <c r="E24" s="95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F24" s="95" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G24" s="95"/>
       <c r="H24" s="95"/>
@@ -63328,31 +63281,31 @@
     </row>
     <row r="25" spans="1:9" s="118" customFormat="1" ht="43.5">
       <c r="A25" s="79" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D25" s="79"/>
       <c r="E25" s="80" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
       <c r="H25" s="80"/>
       <c r="I25" s="80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="118" customFormat="1" ht="14.5">
       <c r="A26" s="79" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
@@ -63364,10 +63317,10 @@
     </row>
     <row r="27" spans="1:9" s="118" customFormat="1" ht="14.5">
       <c r="A27" s="79" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="79"/>
@@ -63379,89 +63332,89 @@
     </row>
     <row r="28" spans="1:9" s="78" customFormat="1" ht="43.5">
       <c r="A28" s="76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D28" s="77"/>
       <c r="E28" s="77" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F28" s="77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="29">
       <c r="A29" s="76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D29" s="76"/>
       <c r="E29" s="77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="77" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29">
       <c r="A30" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -63469,13 +63422,13 @@
     </row>
     <row r="32" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="105"/>
@@ -63486,16 +63439,16 @@
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
@@ -63503,16 +63456,16 @@
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="26" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -63520,16 +63473,16 @@
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="26" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -63537,7 +63490,7 @@
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -63569,10 +63522,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -63585,10 +63538,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="110" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/spec/spec.xlsx
+++ b/spec/spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota\Desktop\travelr\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3FC4F2-9971-4DF8-B7EE-73AF48C2F576}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C07C99-F36B-49B4-B38F-A5F0AEABB2E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="11830" activeTab="1" xr2:uid="{6B85AF98-9DCB-4943-BC09-B1016EC709F7}"/>
   </bookViews>
@@ -3958,18 +3958,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4085,6 +4073,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4837,69 +4837,69 @@
       <c r="BA5" s="47"/>
       <c r="BB5" s="47"/>
     </row>
-    <row r="6" spans="1:54" s="126" customFormat="1">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120" t="s">
+    <row r="6" spans="1:54" s="122" customFormat="1">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="115">
         <v>1</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="115">
         <v>1</v>
       </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124">
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120">
         <v>1</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="119"/>
-      <c r="AZ6" s="119"/>
-      <c r="BA6" s="119"/>
-      <c r="BB6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="119"/>
+      <c r="AQ6" s="119"/>
+      <c r="AR6" s="119"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="119"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="115"/>
+      <c r="AZ6" s="115"/>
+      <c r="BA6" s="115"/>
+      <c r="BB6" s="115"/>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" s="47"/>
@@ -5047,67 +5047,67 @@
       <c r="BA8" s="47"/>
       <c r="BB8" s="47"/>
     </row>
-    <row r="9" spans="1:54" s="126" customFormat="1">
-      <c r="B9" s="119" t="s">
+    <row r="9" spans="1:54" s="122" customFormat="1">
+      <c r="B9" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="115">
         <v>1</v>
       </c>
-      <c r="D9" s="119">
+      <c r="D9" s="115">
         <v>1</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="123">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="119">
         <v>1</v>
       </c>
-      <c r="W9" s="123"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="123"/>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="123"/>
-      <c r="AS9" s="125"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="123"/>
-      <c r="AV9" s="123"/>
-      <c r="AW9" s="123"/>
-      <c r="AX9" s="125"/>
-      <c r="AY9" s="119"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="119"/>
-      <c r="BB9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="120"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="120"/>
+      <c r="AP9" s="119"/>
+      <c r="AQ9" s="119"/>
+      <c r="AR9" s="119"/>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="120"/>
+      <c r="AU9" s="119"/>
+      <c r="AV9" s="119"/>
+      <c r="AW9" s="119"/>
+      <c r="AX9" s="121"/>
+      <c r="AY9" s="115"/>
+      <c r="AZ9" s="115"/>
+      <c r="BA9" s="115"/>
+      <c r="BB9" s="115"/>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" s="47"/>
@@ -5285,71 +5285,71 @@
       <c r="BA11" s="47"/>
       <c r="BB11" s="47"/>
     </row>
-    <row r="12" spans="1:54" s="126" customFormat="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119" t="s">
+    <row r="12" spans="1:54" s="122" customFormat="1">
+      <c r="A12" s="115"/>
+      <c r="B12" s="115" t="s">
         <v>429</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="115">
         <v>2</v>
       </c>
-      <c r="D12" s="119">
+      <c r="D12" s="115">
         <v>2</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="125"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="123"/>
-      <c r="AF12" s="123"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="123">
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="119"/>
+      <c r="AL12" s="119"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="120"/>
+      <c r="AP12" s="119">
         <v>1</v>
       </c>
-      <c r="AQ12" s="123">
+      <c r="AQ12" s="119">
         <v>1</v>
       </c>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="125"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="123"/>
-      <c r="AX12" s="125"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="119"/>
-      <c r="BA12" s="119"/>
-      <c r="BB12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="119"/>
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="121"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" s="47" t="s">
@@ -61361,7 +61361,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B2:B19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="14.5"/>
@@ -61450,37 +61450,37 @@
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" s="111" customFormat="1" ht="29">
-      <c r="A3" s="111">
+    <row r="3" spans="1:12" s="107" customFormat="1" ht="29">
+      <c r="A3" s="107">
         <v>1</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="108" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="115"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" s="30" customFormat="1" ht="29">
       <c r="A4" s="18">
@@ -61780,33 +61780,33 @@
       <c r="K13" s="33"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" s="84" customFormat="1">
-      <c r="A14" s="84">
+    <row r="14" spans="1:12" s="123" customFormat="1">
+      <c r="A14" s="123">
         <v>11</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87" t="s">
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87" t="s">
+      <c r="I14" s="83"/>
+      <c r="J14" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K14" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="L14" s="88" t="s">
+      <c r="L14" s="126" t="s">
         <v>212</v>
       </c>
     </row>
@@ -61868,33 +61868,33 @@
       <c r="K16" s="33"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" s="89" customFormat="1" ht="29">
-      <c r="A17" s="89">
+    <row r="17" spans="1:12" s="85" customFormat="1" ht="29">
+      <c r="A17" s="85">
         <v>14</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92" t="s">
+      <c r="E17" s="88"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="91" t="s">
+      <c r="J17" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="88" t="s">
+      <c r="K17" s="87"/>
+      <c r="L17" s="84" t="s">
         <v>212</v>
       </c>
     </row>
@@ -62087,8 +62087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EF2C2-8F5D-482B-8D1B-02457D7267B7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -62109,10 +62109,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="89" t="s">
         <v>182</v>
       </c>
     </row>
@@ -62213,53 +62213,53 @@
       </c>
       <c r="M1" s="65"/>
     </row>
-    <row r="2" spans="1:13" s="99" customFormat="1" ht="43.5">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:13" s="95" customFormat="1" ht="43.5">
+      <c r="A2" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="98"/>
-    </row>
-    <row r="3" spans="1:13" s="99" customFormat="1" ht="29">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="102" t="s">
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" s="95" customFormat="1" ht="29">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="98" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:13" ht="72.5">
       <c r="A4" s="67" t="s">
@@ -62268,7 +62268,7 @@
       <c r="B4" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="97" t="s">
         <v>262</v>
       </c>
       <c r="D4" s="68" t="s">
@@ -62299,7 +62299,7 @@
       <c r="B5" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="97" t="s">
         <v>160</v>
       </c>
       <c r="D5" s="68" t="s">
@@ -62326,7 +62326,7 @@
       <c r="B6" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="97" t="s">
         <v>159</v>
       </c>
       <c r="D6" s="68" t="s">
@@ -62351,7 +62351,7 @@
       <c r="B7" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="97" t="s">
         <v>284</v>
       </c>
       <c r="D7" s="68" t="s">
@@ -62376,7 +62376,7 @@
       <c r="B8" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="96" t="s">
         <v>296</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -62408,7 +62408,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="76"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="96" t="s">
         <v>278</v>
       </c>
       <c r="D9" s="77"/>
@@ -62434,7 +62434,7 @@
         <v>206</v>
       </c>
       <c r="B10" s="76"/>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="96" t="s">
         <v>198</v>
       </c>
       <c r="D10" s="76"/>
@@ -62460,7 +62460,7 @@
       <c r="B11" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="99" t="s">
         <v>161</v>
       </c>
       <c r="D11" s="73" t="s">
@@ -62497,7 +62497,7 @@
       <c r="B12" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="99" t="s">
         <v>352</v>
       </c>
       <c r="D12" s="73"/>
@@ -62512,7 +62512,7 @@
         <v>380</v>
       </c>
       <c r="I12" s="73"/>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="105" t="s">
         <v>378</v>
       </c>
       <c r="K12" s="73" t="s">
@@ -62528,7 +62528,7 @@
       <c r="B13" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="99" t="s">
         <v>218</v>
       </c>
       <c r="D13" s="73" t="s">
@@ -62563,7 +62563,7 @@
       <c r="B14" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="99" t="s">
         <v>164</v>
       </c>
       <c r="D14" s="73" t="s">
@@ -62594,7 +62594,7 @@
       <c r="B15" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="100" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="80" t="s">
@@ -62627,7 +62627,7 @@
       <c r="B16" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="80" t="s">
@@ -62642,7 +62642,7 @@
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="102" t="s">
         <v>362</v>
       </c>
       <c r="K16" s="80"/>
@@ -62654,7 +62654,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="67"/>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="97" t="s">
         <v>153</v>
       </c>
       <c r="D17" s="68" t="s">
@@ -62676,7 +62676,7 @@
     <row r="18" spans="1:12" s="71" customFormat="1" ht="145">
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="97" t="s">
         <v>279</v>
       </c>
       <c r="D18" s="68" t="s">
@@ -62698,7 +62698,7 @@
     <row r="19" spans="1:12" s="71" customFormat="1" ht="29">
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="97" t="s">
         <v>399</v>
       </c>
       <c r="D19" s="68" t="s">
@@ -62711,7 +62711,7 @@
         <v>337</v>
       </c>
       <c r="I19" s="68"/>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="103" t="s">
         <v>338</v>
       </c>
       <c r="K19" s="67"/>
@@ -62720,7 +62720,7 @@
     <row r="20" spans="1:12" s="71" customFormat="1" ht="29">
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="97" t="s">
         <v>400</v>
       </c>
       <c r="D20" s="68" t="s">
@@ -62733,7 +62733,7 @@
         <v>401</v>
       </c>
       <c r="I20" s="68"/>
-      <c r="J20" s="107"/>
+      <c r="J20" s="103"/>
       <c r="K20" s="67"/>
       <c r="L20" s="68"/>
     </row>
@@ -62757,7 +62757,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24.5" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="112" t="s">
         <v>434</v>
       </c>
     </row>
@@ -63028,262 +63028,262 @@
       </c>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:9" s="108" customFormat="1" ht="43.5">
-      <c r="A14" s="94" t="s">
+    <row r="14" spans="1:9" s="104" customFormat="1" ht="43.5">
+      <c r="A14" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="90" t="s">
         <v>435</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="F14" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:9" ht="43.5">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="91" t="s">
         <v>375</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-    </row>
-    <row r="16" spans="1:9" s="108" customFormat="1" ht="43.5">
-      <c r="A16" s="94" t="s">
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" s="104" customFormat="1" ht="43.5">
+      <c r="A16" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95" t="s">
+      <c r="D16" s="91"/>
+      <c r="E16" s="91" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="91" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="108" customFormat="1" ht="43.5">
-      <c r="A17" s="94" t="s">
+    <row r="17" spans="1:9" s="104" customFormat="1" ht="43.5">
+      <c r="A17" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95" t="s">
+      <c r="D17" s="91"/>
+      <c r="E17" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95" t="s">
+      <c r="F17" s="91"/>
+      <c r="G17" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="91" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="108" customFormat="1" ht="43.5">
-      <c r="A18" s="94" t="s">
+    <row r="18" spans="1:9" s="104" customFormat="1" ht="43.5">
+      <c r="A18" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95" t="s">
+      <c r="D18" s="90"/>
+      <c r="E18" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95" t="s">
+      <c r="F18" s="91"/>
+      <c r="G18" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="91" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95" t="s">
+      <c r="H19" s="91"/>
+      <c r="I19" s="91" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.5">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="F21" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9" ht="14.5">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" spans="1:9" ht="14.5">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="F23" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
     </row>
     <row r="24" spans="1:9" ht="14.5">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-    </row>
-    <row r="25" spans="1:9" s="118" customFormat="1" ht="43.5">
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="1:9" s="114" customFormat="1" ht="43.5">
       <c r="A25" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="113" t="s">
         <v>441</v>
       </c>
       <c r="C25" s="80" t="s">
@@ -63300,7 +63300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="118" customFormat="1" ht="14.5">
+    <row r="26" spans="1:9" s="114" customFormat="1" ht="14.5">
       <c r="A26" s="79" t="s">
         <v>442</v>
       </c>
@@ -63315,7 +63315,7 @@
       <c r="H26" s="80"/>
       <c r="I26" s="80"/>
     </row>
-    <row r="27" spans="1:9" s="118" customFormat="1" ht="14.5">
+    <row r="27" spans="1:9" s="114" customFormat="1" ht="14.5">
       <c r="A27" s="79" t="s">
         <v>442</v>
       </c>
@@ -63421,21 +63421,21 @@
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1">
       <c r="A33" s="24" t="s">
@@ -63537,7 +63537,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="106" t="s">
         <v>385</v>
       </c>
       <c r="B4" t="s">
